--- a/data/trans_orig/P19F$mañana-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>205758</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>182728</v>
+        <v>184214</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>229363</v>
+        <v>229037</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3223192458791617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2862425049110078</v>
+        <v>0.2885709974908666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3592951754237674</v>
+        <v>0.3587850049046098</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>246</v>
@@ -762,19 +762,19 @@
         <v>265108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>239852</v>
+        <v>240406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>291321</v>
+        <v>293718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3815411422457366</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3451937382153317</v>
+        <v>0.3459903822389625</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4192673813662648</v>
+        <v>0.4227160876706765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>443</v>
@@ -783,19 +783,19 @@
         <v>470866</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>438287</v>
+        <v>433748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>512268</v>
+        <v>503736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3531843357301527</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3287475178083034</v>
+        <v>0.3253427627099199</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3842387524081923</v>
+        <v>0.3778390664435154</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>510328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489546</v>
+        <v>490712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>528485</v>
+        <v>530379</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7994258987315835</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7668705242247598</v>
+        <v>0.7686980907889934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8278693054915381</v>
+        <v>0.830836000356877</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>543</v>
@@ -833,19 +833,19 @@
         <v>570143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>547167</v>
+        <v>550066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>587694</v>
+        <v>588409</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8205454515147528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7874787416853835</v>
+        <v>0.7916506771114845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8458046997903349</v>
+        <v>0.8468334029137704</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1032</v>
@@ -854,19 +854,19 @@
         <v>1080471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1049802</v>
+        <v>1054279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1107466</v>
+        <v>1108290</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.810432923738523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7874290978533383</v>
+        <v>0.7907873937171784</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8306811472324098</v>
+        <v>0.83129905788592</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>216016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>191610</v>
+        <v>191504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>241305</v>
+        <v>239906</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3383873156725909</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3001559092495107</v>
+        <v>0.2999898437485967</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3780028707466508</v>
+        <v>0.3758119381219562</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>216</v>
@@ -904,19 +904,19 @@
         <v>221349</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>195875</v>
+        <v>197937</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>246330</v>
+        <v>247447</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3185635635806425</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2819017983869985</v>
+        <v>0.2848687877982305</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.35451618526856</v>
+        <v>0.3561246026622732</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>424</v>
@@ -925,19 +925,19 @@
         <v>437364</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>404061</v>
+        <v>403556</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>471930</v>
+        <v>471515</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3280556321730552</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3030757876993878</v>
+        <v>0.302696959818104</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3539826926826238</v>
+        <v>0.3536710500461586</v>
       </c>
     </row>
     <row r="7">
@@ -958,19 +958,19 @@
         <v>212154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>190750</v>
+        <v>191998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>234770</v>
+        <v>234310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4309944529980064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3875109129165866</v>
+        <v>0.3900467865198698</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4769392705789129</v>
+        <v>0.476005010939878</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -979,19 +979,19 @@
         <v>228864</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>207358</v>
+        <v>205299</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>251088</v>
+        <v>251128</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4658393110327751</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4220655085408885</v>
+        <v>0.4178739614787461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5110751098092674</v>
+        <v>0.5111562065796666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>426</v>
@@ -1000,19 +1000,19 @@
         <v>441018</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>408286</v>
+        <v>409821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>472169</v>
+        <v>471288</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4484000811227397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4151201263362068</v>
+        <v>0.4166805191236814</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4800719955793492</v>
+        <v>0.4791767772198294</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>373226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352683</v>
+        <v>351321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>391706</v>
+        <v>390246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7582148607519589</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7164813971912795</v>
+        <v>0.7137145777450323</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7957564218565475</v>
+        <v>0.7927911882627634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>392</v>
@@ -1050,19 +1050,19 @@
         <v>411903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>393420</v>
+        <v>394273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>426716</v>
+        <v>428742</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8384052309566563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8007828401151676</v>
+        <v>0.8025190016488228</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8685548889845938</v>
+        <v>0.8726800045300448</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>758</v>
@@ -1071,19 +1071,19 @@
         <v>785129</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>759719</v>
+        <v>757397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>807734</v>
+        <v>809624</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7982713810447073</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7724351383086377</v>
+        <v>0.7700744676239268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8212544092108774</v>
+        <v>0.8231763989184943</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>156609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>136160</v>
+        <v>136562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>177853</v>
+        <v>178901</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3181529765824371</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2766109801107924</v>
+        <v>0.2774281934551874</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3613117993763619</v>
+        <v>0.3634414141953339</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>143</v>
@@ -1121,19 +1121,19 @@
         <v>148512</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128665</v>
+        <v>129536</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169615</v>
+        <v>170523</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3022875917228715</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2618896493884824</v>
+        <v>0.2636639011794497</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3452421703818694</v>
+        <v>0.3470896975630688</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>294</v>
@@ -1142,19 +1142,19 @@
         <v>305121</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>274110</v>
+        <v>276059</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>332493</v>
+        <v>335009</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3102279338502834</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.278697987513593</v>
+        <v>0.2806800370271485</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3380580531549647</v>
+        <v>0.3406168483953446</v>
       </c>
     </row>
     <row r="10">
@@ -1175,19 +1175,19 @@
         <v>161667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142140</v>
+        <v>143219</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181601</v>
+        <v>182268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4468698614875483</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3928927187557063</v>
+        <v>0.3958770535649117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5019681020932945</v>
+        <v>0.5038118326936246</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>152</v>
@@ -1196,19 +1196,19 @@
         <v>161682</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142962</v>
+        <v>142444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180695</v>
+        <v>180059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4841879056606003</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4281267574225613</v>
+        <v>0.4265744282380102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5411239715520031</v>
+        <v>0.5392187928859561</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>310</v>
@@ -1217,19 +1217,19 @@
         <v>323349</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>297550</v>
+        <v>297276</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>350911</v>
+        <v>347838</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4647818799658209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4276987279820229</v>
+        <v>0.4273042549816624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5043986575464051</v>
+        <v>0.4999817781033212</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>281541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>261611</v>
+        <v>263904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296599</v>
+        <v>297883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7782178472324096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7231281683522683</v>
+        <v>0.7294655603759198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8198388130143888</v>
+        <v>0.8233894340449673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -1267,19 +1267,19 @@
         <v>251298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234371</v>
+        <v>233517</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266252</v>
+        <v>265741</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7525570989685626</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7018682664773161</v>
+        <v>0.6993102767028206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7973393575605731</v>
+        <v>0.7958091965685483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -1288,19 +1288,19 @@
         <v>532838</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>509992</v>
+        <v>509814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555146</v>
+        <v>554762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7659011300181607</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7330616088190807</v>
+        <v>0.7328061726363357</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7979664982324852</v>
+        <v>0.7974140563558142</v>
       </c>
     </row>
     <row r="12">
@@ -1317,19 +1317,19 @@
         <v>98527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81637</v>
+        <v>80925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117378</v>
+        <v>116761</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2723410326423046</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2256560594576429</v>
+        <v>0.2236884514211784</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3244479676236948</v>
+        <v>0.3227434851512778</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>110</v>
@@ -1338,19 +1338,19 @@
         <v>117526</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>100524</v>
+        <v>100286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>136785</v>
+        <v>135579</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3519520620602167</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.301037597442806</v>
+        <v>0.3003239565571342</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4096279177446046</v>
+        <v>0.4060151364282203</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>202</v>
@@ -1359,19 +1359,19 @@
         <v>216052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>189118</v>
+        <v>190405</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241429</v>
+        <v>240186</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3105529556304251</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2718386097613376</v>
+        <v>0.2736886420927713</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.347030075468775</v>
+        <v>0.3452427198488654</v>
       </c>
     </row>
     <row r="13">
@@ -1392,19 +1392,19 @@
         <v>135688</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>118958</v>
+        <v>119693</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154522</v>
+        <v>152682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4958502469849647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.434711375413714</v>
+        <v>0.4373975988706744</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5646734207998096</v>
+        <v>0.5579497440885344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -1413,19 +1413,19 @@
         <v>124474</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110903</v>
+        <v>108885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140809</v>
+        <v>139184</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.565970281559529</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5042609955548744</v>
+        <v>0.4950848674472653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6402439220961683</v>
+        <v>0.6328540248843162</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>242</v>
@@ -1434,19 +1434,19 @@
         <v>260162</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>236407</v>
+        <v>238631</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283296</v>
+        <v>285755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5270946121370194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4789655763538338</v>
+        <v>0.4834710624325227</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5739645098534508</v>
+        <v>0.5789456230354416</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>207889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191798</v>
+        <v>192056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>222239</v>
+        <v>221940</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7596939936315728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7008927554999971</v>
+        <v>0.7018371998269508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8121344468730337</v>
+        <v>0.8110418954161205</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>158</v>
@@ -1484,19 +1484,19 @@
         <v>169959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157163</v>
+        <v>156501</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>182709</v>
+        <v>181374</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7727827565698934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.714601204279206</v>
+        <v>0.7115917302022904</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8307554971417852</v>
+        <v>0.8246856256880037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>351</v>
@@ -1505,19 +1505,19 @@
         <v>377847</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>356177</v>
+        <v>358756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>395396</v>
+        <v>396525</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7655261369143702</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7216231356565307</v>
+        <v>0.7268481224550103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8010815439096256</v>
+        <v>0.8033685729431472</v>
       </c>
     </row>
     <row r="15">
@@ -1534,19 +1534,19 @@
         <v>73524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>59235</v>
+        <v>59085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>89953</v>
+        <v>89489</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2686807452364407</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2164655933428703</v>
+        <v>0.2159173815552284</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3287169674517105</v>
+        <v>0.3270217522808841</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>67</v>
@@ -1555,19 +1555,19 @@
         <v>71175</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>56304</v>
+        <v>55823</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>84393</v>
+        <v>86675</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3236226858460297</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2560068008233442</v>
+        <v>0.2538225869281494</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3837250983875212</v>
+        <v>0.3941009228646806</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>134</v>
@@ -1576,19 +1576,19 @@
         <v>144698</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>123590</v>
+        <v>126262</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>165828</v>
+        <v>165701</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2931619946394636</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2503951903990155</v>
+        <v>0.2558094136557676</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3359703760028365</v>
+        <v>0.335713279743153</v>
       </c>
     </row>
     <row r="16">
@@ -1609,19 +1609,19 @@
         <v>715268</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>674778</v>
+        <v>674700</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>759519</v>
+        <v>757358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4050132314771768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3820865384076923</v>
+        <v>0.3820425115581668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4300699444466702</v>
+        <v>0.4288467728340741</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>731</v>
@@ -1630,19 +1630,19 @@
         <v>780129</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>737835</v>
+        <v>739514</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>823739</v>
+        <v>823245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.44835390363266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.424047117492992</v>
+        <v>0.425012035507022</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4734177014208124</v>
+        <v>0.473133810171932</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1421</v>
@@ -1651,19 +1651,19 @@
         <v>1495396</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1435385</v>
+        <v>1436752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1555392</v>
+        <v>1551909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4265225478244781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4094058210859319</v>
+        <v>0.4097959245924211</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4436347831093643</v>
+        <v>0.4426412205184803</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1372983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1334772</v>
+        <v>1336935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1406685</v>
+        <v>1405496</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7774382477176122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7558017138226045</v>
+        <v>0.7570263551480585</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.796521313737107</v>
+        <v>0.7958485721320983</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1330</v>
@@ -1701,19 +1701,19 @@
         <v>1403303</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1367013</v>
+        <v>1368139</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1435458</v>
+        <v>1435540</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8065033281076162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.785646829611727</v>
+        <v>0.7862937937897977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8249832626777733</v>
+        <v>0.8250307809644145</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2646</v>
@@ -1722,19 +1722,19 @@
         <v>2776286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2727378</v>
+        <v>2722682</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2823633</v>
+        <v>2823060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7918628050139449</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7779131640164473</v>
+        <v>0.7765737591836991</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8053672590194308</v>
+        <v>0.8052037531989846</v>
       </c>
     </row>
     <row r="18">
@@ -1751,19 +1751,19 @@
         <v>544675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>501917</v>
+        <v>501169</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>585444</v>
+        <v>581027</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3084166378586926</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2842053459933514</v>
+        <v>0.2837820312608654</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3315021123707898</v>
+        <v>0.3290008342386809</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>536</v>
@@ -1772,19 +1772,19 @@
         <v>558561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>519543</v>
+        <v>519523</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>596191</v>
+        <v>600070</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3210150866296276</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2985905146341526</v>
+        <v>0.2985790027259794</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3426415220050765</v>
+        <v>0.3448709593919722</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1054</v>
@@ -1793,19 +1793,19 @@
         <v>1103236</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1049421</v>
+        <v>1049536</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1162962</v>
+        <v>1157590</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.314669056352046</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2993197509170092</v>
+        <v>0.2993525433474782</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3317045498981424</v>
+        <v>0.3301720994103126</v>
       </c>
     </row>
     <row r="19">
